--- a/bin/Debug/netcoreapp3.1/RequiredFiles/ClaimNavigationMotor.xlsx
+++ b/bin/Debug/netcoreapp3.1/RequiredFiles/ClaimNavigationMotor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin2\Documents\Visual Studio 2022\Projects\III_ProjectOne\bin\Debug\netcoreapp3.1\RequiredFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin2\Documents\Visual Studio 2022\Projects\III_ProjectOneMotor\bin\Debug\netcoreapp3.1\RequiredFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="191">
   <si>
     <t>Remarks</t>
   </si>
@@ -344,9 +344,6 @@
     <t>ClaimExistsPopup</t>
   </si>
   <si>
-    <t>/html/body/div[2]/div/form/div[2]/div[1]/div[2]/div[2]/div[2]/div/div/div[3]/div/div[2]/button[1]</t>
-  </si>
-  <si>
     <t>subClaimCoverageSelect</t>
   </si>
   <si>
@@ -579,6 +576,36 @@
   </si>
   <si>
     <t>SubrogateLossAmtSubmit</t>
+  </si>
+  <si>
+    <t>EnterVehicleNumber</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[1]/div[2]/div[2]/div[3]/div/div/div[2]/div[1]/div[2]/div[2]/div[1]/div/div/div/div/input</t>
+  </si>
+  <si>
+    <t>SearchVehicle</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[1]/div[2]/div[2]/div[3]/div/div/div[2]/div[1]/div[2]/div[2]/div[2]/button</t>
+  </si>
+  <si>
+    <t>VehicleTable</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[1]/div[2]/div[2]/div[3]/div/div/div[2]/div[1]/div[2]/div[2]/div[3]/div[1]/table/tbody</t>
+  </si>
+  <si>
+    <t>VehicleCheckbox</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[1]/div[2]/div[2]/div[3]/div/div/div[2]/div[1]/div[2]/div[2]/div[3]/div[1]/table/thead/tr/th[1]/input</t>
+  </si>
+  <si>
+    <t>ContinueButton</t>
+  </si>
+  <si>
+    <t>EnterAccidentDescription</t>
   </si>
 </sst>
 </file>
@@ -947,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1374,7 @@
         <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1480,10 +1507,10 @@
         <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,10 +1524,10 @@
         <v>73</v>
       </c>
       <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
         <v>133</v>
-      </c>
-      <c r="E32" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,10 +1541,10 @@
         <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,10 +1558,10 @@
         <v>73</v>
       </c>
       <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
         <v>137</v>
-      </c>
-      <c r="E34" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1548,10 +1575,10 @@
         <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
         <v>142</v>
-      </c>
-      <c r="E36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1573,16 +1600,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
         <v>145</v>
       </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>146</v>
-      </c>
-      <c r="E37" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1590,16 +1617,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" t="s">
         <v>148</v>
-      </c>
-      <c r="E38" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1607,16 +1634,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
         <v>150</v>
-      </c>
-      <c r="E39" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1624,16 +1651,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1641,16 +1668,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,16 +1685,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
         <v>155</v>
-      </c>
-      <c r="E42" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1675,16 +1702,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
         <v>157</v>
-      </c>
-      <c r="E43" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,16 +1719,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,16 +1736,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1726,16 +1753,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1743,16 +1770,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1760,16 +1787,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,10 +2048,10 @@
         <v>101</v>
       </c>
       <c r="D63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" t="s">
         <v>104</v>
-      </c>
-      <c r="E63" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,10 +2099,10 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" t="s">
         <v>106</v>
-      </c>
-      <c r="E66" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,10 +2116,10 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
         <v>108</v>
-      </c>
-      <c r="E67" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,10 +2133,10 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,13 +2147,13 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
         <v>112</v>
-      </c>
-      <c r="E69" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2137,13 +2164,13 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" t="s">
         <v>114</v>
-      </c>
-      <c r="E70" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2154,13 +2181,13 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" t="s">
         <v>116</v>
-      </c>
-      <c r="E71" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,13 +2198,13 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" t="s">
         <v>118</v>
-      </c>
-      <c r="E72" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,13 +2215,13 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2205,13 +2232,13 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" t="s">
         <v>121</v>
-      </c>
-      <c r="E74" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2222,13 +2249,13 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" t="s">
         <v>123</v>
-      </c>
-      <c r="E75" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2239,13 +2266,13 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s">
         <v>125</v>
-      </c>
-      <c r="E76" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2256,13 +2283,13 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,13 +2300,13 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2290,85 +2317,133 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" t="s">
         <v>170</v>
-      </c>
-      <c r="E80" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
         <v>172</v>
-      </c>
-      <c r="E81" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" t="s">
         <v>176</v>
-      </c>
-      <c r="E84" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>181</v>
       </c>
-      <c r="E88" t="s">
-        <v>117</v>
+      <c r="E89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/netcoreapp3.1/RequiredFiles/ClaimNavigationMotor.xlsx
+++ b/bin/Debug/netcoreapp3.1/RequiredFiles/ClaimNavigationMotor.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Navigation" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Navigation!$A$1:$F$100</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="202">
   <si>
     <t>Remarks</t>
   </si>
@@ -606,6 +609,39 @@
   </si>
   <si>
     <t>EnterAccidentDescription</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[2]/div[2]/div/div/div/div/div/a/div/span</t>
+  </si>
+  <si>
+    <t>AddDamageInfo</t>
+  </si>
+  <si>
+    <t>FirstParty</t>
+  </si>
+  <si>
+    <t>PolicyDamageItem</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[2]/div[2]/div[2]/div[1]/div[1]/div[3]/div/div/input</t>
+  </si>
+  <si>
+    <t>ClaimantTable</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[2]/div[2]/div[2]/div[3]/div/div/div[2]/div/div[2]/div[1]/table/tbody</t>
+  </si>
+  <si>
+    <t>ClaimantTableClaimantName</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[2]/div[2]/div[2]/div[3]/div/div/div[2]/div/div[2]/div[1]/table/tbody/tr/td[3]</t>
+  </si>
+  <si>
+    <t>ClaimantSelectRadiobtn</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[2]/div[2]/div[2]/div[3]/div/div/div[2]/div/div[2]/div[1]/table/tbody/tr/td[1]/div/input</t>
   </si>
 </sst>
 </file>
@@ -974,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,6 +2482,54 @@
         <v>69</v>
       </c>
     </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>194</v>
+      </c>
+      <c r="E97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bin/Debug/netcoreapp3.1/RequiredFiles/ClaimNavigationMotor.xlsx
+++ b/bin/Debug/netcoreapp3.1/RequiredFiles/ClaimNavigationMotor.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Navigation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Navigation!$A$1:$F$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Navigation!$A$1:$F$108</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="210">
   <si>
     <t>Remarks</t>
   </si>
@@ -642,6 +642,30 @@
   </si>
   <si>
     <t>/html/body/div[2]/div/form/div[2]/div[2]/div[2]/div[2]/div[3]/div/div/div[2]/div/div[2]/div[1]/table/tbody/tr/td[1]/div/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[2]/div[2]/div[2]/div[3]/div/div/div[2]/div/div[1]/div[2]/div[1]/div[2]/div/div/div/div/a/div/span</t>
+  </si>
+  <si>
+    <t>AddContactEmail</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div[2]/div[2]/div[2]/div[2]/div[3]/div/div/div[2]/div/div[1]/div[3]/div[1]/div[2]/div/div/div/div/a/div/span</t>
+  </si>
+  <si>
+    <t>AddressTypeDropdown</t>
+  </si>
+  <si>
+    <t>AddressPostalCode</t>
+  </si>
+  <si>
+    <t>AddressAdress1</t>
+  </si>
+  <si>
+    <t>AddressSaveButton</t>
+  </si>
+  <si>
+    <t>SelectASClaimant</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,6 +2554,70 @@
         <v>201</v>
       </c>
     </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>203</v>
+      </c>
+      <c r="E102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>156</v>
+      </c>
+      <c r="E103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>205</v>
+      </c>
+      <c r="E104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>207</v>
+      </c>
+      <c r="E106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>208</v>
+      </c>
+      <c r="E107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
